--- a/backend/web/importador_titulos.xlsx
+++ b/backend/web/importador_titulos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TituloElectronico" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t xml:space="preserve">xlmns</t>
   </si>
@@ -41,6 +41,9 @@
     <t xml:space="preserve">folioControl</t>
   </si>
   <si>
+    <t xml:space="preserve">curpProfesionista</t>
+  </si>
+  <si>
     <t xml:space="preserve">nombreInstitucion</t>
   </si>
   <si>
@@ -132,9 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve">entidadFederativa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curpProfesionista</t>
   </si>
   <si>
     <t xml:space="preserve">institucionProcedencia</t>
@@ -156,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -186,6 +186,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,7 +233,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,11 +260,8 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,32 +270,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Output" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -361,10 +368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="J1 A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -373,7 +380,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="11.43"/>
@@ -391,6 +398,9 @@
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -412,7 +422,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="J1 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,11 +435,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -451,7 +461,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="J1 A14"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -469,37 +479,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -522,7 +532,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="J1 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,37 +550,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -593,7 +603,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="J1 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -612,28 +622,28 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -656,7 +666,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="J1 A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,29 +684,29 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>23</v>
+      <c r="H1" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -718,7 +728,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="J1 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,41 +751,41 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>35</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +806,7 @@
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -816,35 +826,35 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>35</v>
+      <c r="J1" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
